--- a/data_exerc/Correlação.xlsx
+++ b/data_exerc/Correlação.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rprimi/Dropbox (Personal)/Ciencia_de_dados_stat/ds_stat/data_exerc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEBB7DB2-A865-D748-9CE3-D92674051026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4B98BDC1-C357-7A4D-939A-481267B2A7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34620" yWindow="-1680" windowWidth="30960" windowHeight="18920"/>
   </bookViews>
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
